--- a/SchedulingData/dynamic15/pso/scheduling1_9.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_9.xlsx
@@ -466,36 +466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>49.56</v>
+        <v>47.78</v>
       </c>
       <c r="E2" t="n">
-        <v>26.724</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43.24</v>
+        <v>52.22</v>
       </c>
       <c r="E3" t="n">
-        <v>26.876</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="4">
@@ -504,36 +504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43.24</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>103.84</v>
+        <v>62.5</v>
       </c>
       <c r="E4" t="n">
-        <v>21.956</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.8</v>
+        <v>65.62</v>
       </c>
       <c r="E5" t="n">
-        <v>26.62</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="6">
@@ -542,435 +542,435 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.56</v>
+        <v>47.78</v>
       </c>
       <c r="D6" t="n">
-        <v>101.18</v>
+        <v>101.44</v>
       </c>
       <c r="E6" t="n">
-        <v>22.692</v>
+        <v>23.676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40.8</v>
+        <v>52.22</v>
       </c>
       <c r="D7" t="n">
-        <v>77.3</v>
+        <v>101.02</v>
       </c>
       <c r="E7" t="n">
-        <v>24.1</v>
+        <v>22.728</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>101.18</v>
+        <v>101.02</v>
       </c>
       <c r="D8" t="n">
-        <v>184.98</v>
+        <v>145.92</v>
       </c>
       <c r="E8" t="n">
-        <v>17.892</v>
+        <v>19.868</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>77.3</v>
+        <v>65.62</v>
       </c>
       <c r="D9" t="n">
-        <v>121.1</v>
+        <v>109.48</v>
       </c>
       <c r="E9" t="n">
-        <v>20.86</v>
+        <v>23.832</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>101.44</v>
       </c>
       <c r="D10" t="n">
-        <v>53.64</v>
+        <v>157.74</v>
       </c>
       <c r="E10" t="n">
-        <v>27.296</v>
+        <v>20.156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>103.84</v>
+        <v>145.92</v>
       </c>
       <c r="D11" t="n">
-        <v>184.56</v>
+        <v>203.2</v>
       </c>
       <c r="E11" t="n">
-        <v>18.964</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>53.64</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>116.24</v>
+        <v>87.38</v>
       </c>
       <c r="E12" t="n">
-        <v>23.656</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>184.56</v>
+        <v>203.2</v>
       </c>
       <c r="D13" t="n">
-        <v>230.34</v>
+        <v>259.02</v>
       </c>
       <c r="E13" t="n">
-        <v>16.016</v>
+        <v>11.808</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>121.1</v>
+        <v>109.48</v>
       </c>
       <c r="D14" t="n">
-        <v>168.7</v>
+        <v>182.38</v>
       </c>
       <c r="E14" t="n">
-        <v>18.7</v>
+        <v>19.152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>157.74</v>
       </c>
       <c r="D15" t="n">
-        <v>76.36</v>
+        <v>213.34</v>
       </c>
       <c r="E15" t="n">
-        <v>26.024</v>
+        <v>15.236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>184.98</v>
+        <v>87.38</v>
       </c>
       <c r="D16" t="n">
-        <v>246.9</v>
+        <v>143.74</v>
       </c>
       <c r="E16" t="n">
-        <v>14.34</v>
+        <v>23.396</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>76.36</v>
+        <v>62.5</v>
       </c>
       <c r="D17" t="n">
-        <v>146.76</v>
+        <v>128</v>
       </c>
       <c r="E17" t="n">
-        <v>22.104</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>246.9</v>
+        <v>128</v>
       </c>
       <c r="D18" t="n">
-        <v>317.3</v>
+        <v>163.52</v>
       </c>
       <c r="E18" t="n">
-        <v>9.42</v>
+        <v>17.608</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>182.38</v>
       </c>
       <c r="D19" t="n">
-        <v>44.16</v>
+        <v>234</v>
       </c>
       <c r="E19" t="n">
-        <v>27.264</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>230.34</v>
+        <v>234</v>
       </c>
       <c r="D20" t="n">
-        <v>282.54</v>
+        <v>292</v>
       </c>
       <c r="E20" t="n">
-        <v>12.936</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>146.76</v>
+        <v>143.74</v>
       </c>
       <c r="D21" t="n">
-        <v>197.04</v>
+        <v>186.54</v>
       </c>
       <c r="E21" t="n">
-        <v>18.716</v>
+        <v>21.236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>116.24</v>
+        <v>213.34</v>
       </c>
       <c r="D22" t="n">
-        <v>179.34</v>
+        <v>273.84</v>
       </c>
       <c r="E22" t="n">
-        <v>18.976</v>
+        <v>11.316</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>317.3</v>
+        <v>186.54</v>
       </c>
       <c r="D23" t="n">
-        <v>361.06</v>
+        <v>235.88</v>
       </c>
       <c r="E23" t="n">
-        <v>6.684</v>
+        <v>17.932</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>361.06</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>436.34</v>
+        <v>49.28</v>
       </c>
       <c r="E24" t="n">
-        <v>3.276</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>197.04</v>
+        <v>49.28</v>
       </c>
       <c r="D25" t="n">
-        <v>248.48</v>
+        <v>124.66</v>
       </c>
       <c r="E25" t="n">
-        <v>14.712</v>
+        <v>23.804</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>168.7</v>
+        <v>273.84</v>
       </c>
       <c r="D26" t="n">
-        <v>212.64</v>
+        <v>335.16</v>
       </c>
       <c r="E26" t="n">
-        <v>15.436</v>
+        <v>8.324</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>282.54</v>
+        <v>235.88</v>
       </c>
       <c r="D27" t="n">
-        <v>371.32</v>
+        <v>282.98</v>
       </c>
       <c r="E27" t="n">
-        <v>10.128</v>
+        <v>14.852</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>212.64</v>
+        <v>335.16</v>
       </c>
       <c r="D28" t="n">
-        <v>255.14</v>
+        <v>381.6</v>
       </c>
       <c r="E28" t="n">
-        <v>12.316</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="29">
@@ -979,74 +979,74 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>179.34</v>
+        <v>292</v>
       </c>
       <c r="D29" t="n">
-        <v>231.72</v>
+        <v>352.96</v>
       </c>
       <c r="E29" t="n">
-        <v>14.868</v>
+        <v>7.484</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>44.16</v>
+        <v>352.96</v>
       </c>
       <c r="D30" t="n">
-        <v>116.14</v>
+        <v>407.28</v>
       </c>
       <c r="E30" t="n">
-        <v>23.676</v>
+        <v>3.692</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>255.14</v>
+        <v>163.52</v>
       </c>
       <c r="D31" t="n">
-        <v>314.84</v>
+        <v>210.58</v>
       </c>
       <c r="E31" t="n">
-        <v>8.956</v>
+        <v>15.012</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>371.32</v>
+        <v>282.98</v>
       </c>
       <c r="D32" t="n">
-        <v>443.8</v>
+        <v>343.06</v>
       </c>
       <c r="E32" t="n">
-        <v>6.48</v>
+        <v>11.444</v>
       </c>
     </row>
     <row r="33">
@@ -1055,207 +1055,207 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>231.72</v>
+        <v>407.28</v>
       </c>
       <c r="D33" t="n">
-        <v>283.18</v>
+        <v>481.24</v>
       </c>
       <c r="E33" t="n">
-        <v>11.852</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>314.84</v>
+        <v>481.24</v>
       </c>
       <c r="D34" t="n">
-        <v>378.1</v>
+        <v>567.21</v>
       </c>
       <c r="E34" t="n">
-        <v>5.26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>248.48</v>
+        <v>381.6</v>
       </c>
       <c r="D35" t="n">
-        <v>297.92</v>
+        <v>421.6</v>
       </c>
       <c r="E35" t="n">
-        <v>11.408</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>297.92</v>
+        <v>421.6</v>
       </c>
       <c r="D36" t="n">
-        <v>343.02</v>
+        <v>516.08</v>
       </c>
       <c r="E36" t="n">
-        <v>8.028</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>378.1</v>
+        <v>124.66</v>
       </c>
       <c r="D37" t="n">
-        <v>422.58</v>
+        <v>184.06</v>
       </c>
       <c r="E37" t="n">
-        <v>1.452</v>
+        <v>19.004</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>422.58</v>
+        <v>259.02</v>
       </c>
       <c r="D38" t="n">
-        <v>516.1799999999999</v>
+        <v>328.78</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>8.952</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>516.1799999999999</v>
+        <v>210.58</v>
       </c>
       <c r="D39" t="n">
-        <v>548.88</v>
+        <v>278.74</v>
       </c>
       <c r="E39" t="n">
-        <v>27.92</v>
+        <v>11.316</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>343.02</v>
+        <v>278.74</v>
       </c>
       <c r="D40" t="n">
-        <v>410.52</v>
+        <v>340.88</v>
       </c>
       <c r="E40" t="n">
-        <v>4.368</v>
+        <v>8.192</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>283.18</v>
+        <v>328.78</v>
       </c>
       <c r="D41" t="n">
-        <v>349.1</v>
+        <v>381.48</v>
       </c>
       <c r="E41" t="n">
-        <v>7.9</v>
+        <v>5.312</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>349.1</v>
+        <v>343.06</v>
       </c>
       <c r="D42" t="n">
-        <v>423.32</v>
+        <v>408.04</v>
       </c>
       <c r="E42" t="n">
-        <v>4.108</v>
+        <v>8.055999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>410.52</v>
+        <v>184.06</v>
       </c>
       <c r="D43" t="n">
-        <v>462.92</v>
+        <v>241.26</v>
       </c>
       <c r="E43" t="n">
-        <v>1.248</v>
+        <v>15.884</v>
       </c>
     </row>
     <row r="44">
@@ -1264,55 +1264,55 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>462.92</v>
+        <v>381.48</v>
       </c>
       <c r="D44" t="n">
-        <v>527.42</v>
+        <v>445.66</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>1.504</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>116.14</v>
+        <v>445.66</v>
       </c>
       <c r="D45" t="n">
-        <v>207.74</v>
+        <v>539.15</v>
       </c>
       <c r="E45" t="n">
-        <v>19.116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>527.42</v>
+        <v>340.88</v>
       </c>
       <c r="D46" t="n">
-        <v>591.7</v>
+        <v>408.36</v>
       </c>
       <c r="E46" t="n">
-        <v>26.752</v>
+        <v>4.544</v>
       </c>
     </row>
     <row r="47">
@@ -1321,74 +1321,74 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>207.74</v>
+        <v>241.26</v>
       </c>
       <c r="D47" t="n">
-        <v>291.4</v>
+        <v>298.56</v>
       </c>
       <c r="E47" t="n">
-        <v>15.86</v>
+        <v>12.764</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>291.4</v>
+        <v>539.15</v>
       </c>
       <c r="D48" t="n">
-        <v>338.66</v>
+        <v>603.39</v>
       </c>
       <c r="E48" t="n">
-        <v>13.264</v>
+        <v>26.736</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>436.34</v>
+        <v>408.36</v>
       </c>
       <c r="D49" t="n">
-        <v>521.49</v>
+        <v>467.32</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>1.288</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>521.49</v>
+        <v>467.32</v>
       </c>
       <c r="D50" t="n">
-        <v>574.27</v>
+        <v>561.34</v>
       </c>
       <c r="E50" t="n">
-        <v>26.412</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -1397,60 +1397,60 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>443.8</v>
+        <v>561.34</v>
       </c>
       <c r="D51" t="n">
-        <v>500</v>
+        <v>612.14</v>
       </c>
       <c r="E51" t="n">
-        <v>1.5</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>500</v>
+        <v>408.04</v>
       </c>
       <c r="D52" t="n">
-        <v>583.6</v>
+        <v>453.14</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>4.676</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>338.66</v>
+        <v>603.39</v>
       </c>
       <c r="D53" t="n">
-        <v>395.06</v>
+        <v>636.83</v>
       </c>
       <c r="E53" t="n">
-        <v>9.744</v>
+        <v>24.032</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1458,13 +1458,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>548.88</v>
+        <v>567.21</v>
       </c>
       <c r="D54" t="n">
-        <v>597</v>
+        <v>620.83</v>
       </c>
       <c r="E54" t="n">
-        <v>24.728</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="55">
@@ -1473,112 +1473,112 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>597</v>
+        <v>453.14</v>
       </c>
       <c r="D55" t="n">
-        <v>658.62</v>
+        <v>509.74</v>
       </c>
       <c r="E55" t="n">
-        <v>20.696</v>
+        <v>2.596</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>583.6</v>
+        <v>298.56</v>
       </c>
       <c r="D56" t="n">
-        <v>634.0599999999999</v>
+        <v>361.82</v>
       </c>
       <c r="E56" t="n">
-        <v>27.144</v>
+        <v>10.028</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>591.7</v>
+        <v>509.74</v>
       </c>
       <c r="D57" t="n">
-        <v>661.5</v>
+        <v>576.45</v>
       </c>
       <c r="E57" t="n">
-        <v>23.892</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>423.32</v>
+        <v>576.45</v>
       </c>
       <c r="D58" t="n">
-        <v>488.74</v>
+        <v>652.85</v>
       </c>
       <c r="E58" t="n">
-        <v>1.196</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>488.74</v>
+        <v>361.82</v>
       </c>
       <c r="D59" t="n">
-        <v>587.85</v>
+        <v>433.54</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>6.476</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>634.0599999999999</v>
+        <v>620.83</v>
       </c>
       <c r="D60" t="n">
-        <v>679.48</v>
+        <v>662.23</v>
       </c>
       <c r="E60" t="n">
-        <v>24.232</v>
+        <v>24.288</v>
       </c>
     </row>
     <row r="61">
@@ -1587,17 +1587,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>395.06</v>
+        <v>433.54</v>
       </c>
       <c r="D61" t="n">
-        <v>458.92</v>
+        <v>517.3200000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>6.488</v>
+        <v>3.668</v>
       </c>
     </row>
   </sheetData>
